--- a/biology/Médecine/NLRP3/NLRP3.xlsx
+++ b/biology/Médecine/NLRP3/NLRP3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La NLRP3 (« NOD-like receptor family, pyrin domain containing 3 » ou CIAS1) est un complexe de type inflammasome. Son gène est le NLRP3 situé sur le chromosome 1 humain. Ses autres noms sont le NALP3 (« NACHT, LRR and PYD domains-containing protein 3 ») ou le CLR1.1 (« caterpiller-like receptor 1.1 »). On le nommait anciennement cryopyrine d'où le terme pathologique qui est resté : cryopyrinopathies.
-Il interagit avec le CARD8[5].
-Il régule la caspase 1 qui permet l'activation de l'interleukine 1 bêta[6].
+Il interagit avec le CARD8.
+Il régule la caspase 1 qui permet l'activation de l'interleukine 1 bêta.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La mutation du gène NLRP3 provoque des maladies auto-inflammatoires appelées cryopyrinopathies qui sont, par ordre croissant de gravité : 
 - L'urticaire familiale au froid
